--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_15-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_15-23.xlsx
@@ -182,49 +182,52 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>TIAPAIR 20 TABS</t>
+  </si>
+  <si>
+    <t>TRI TECT BABY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7815:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلاستر 2سم </t>
+  </si>
+  <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>TIAPAIR 20 TABS</t>
-  </si>
-  <si>
-    <t>TRI TECT BABY SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7815:0</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بلاستر 2سم </t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -1838,11 +1841,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2118,7 +2121,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2136,7 +2139,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2144,7 +2147,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2162,7 +2165,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2170,7 +2173,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2188,7 +2191,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2196,7 +2199,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2214,7 +2217,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2222,7 +2225,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2240,7 +2243,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2248,7 +2251,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2263,7 +2266,7 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="K59" s="11">
-        <v>4682.46</v>
+        <v>4708.46</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -2271,19 +2274,19 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c t="s" r="F60" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="14"/>
       <c t="s" r="I60" s="15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
